--- a/配置文档/buff效果相关/buff配置.xlsx
+++ b/配置文档/buff效果相关/buff配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23565" windowHeight="12255" activeTab="1"/>
+    <workbookView windowHeight="17655" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cfg_BuffTag_buff标签数据" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="224">
   <si>
     <t>该表用于 配置buff的标签
 一个buff可以有多个标签
@@ -112,6 +112,24 @@
     <t>HashSet&lt;INT&gt;</t>
   </si>
   <si>
+    <t>燃烧</t>
+  </si>
+  <si>
+    <t>#BASEVALUE</t>
+  </si>
+  <si>
+    <t>电磁</t>
+  </si>
+  <si>
+    <t>腐化</t>
+  </si>
+  <si>
+    <t>结晶</t>
+  </si>
+  <si>
+    <t>减速</t>
+  </si>
+  <si>
     <t>该表用于配置buff基础数据
 数据不想填就写 #BASEVALUE</t>
   </si>
@@ -242,6 +260,12 @@
     <t>&lt;(INT)&gt;</t>
   </si>
   <si>
+    <t>每秒损失1%+10点结构值</t>
+  </si>
+  <si>
+    <t>(0,1,0,0,0,1,2,3,4,5)</t>
+  </si>
+  <si>
     <t>护盾过载</t>
   </si>
   <si>
@@ -272,27 +296,15 @@
     <t>每秒损失0.5%+10的装甲血量，如果装甲值耗尽，那么每秒损失1%+25的结构值，范围效果内存在同样名称的属性时取最大效果</t>
   </si>
   <si>
-    <t>燃烧</t>
-  </si>
-  <si>
-    <t>每秒损失1%+15点装甲血量和2%+10点结构值</t>
-  </si>
-  <si>
     <t>辐射</t>
   </si>
   <si>
     <t>每秒损失2%点结构值</t>
   </si>
   <si>
-    <t>电磁</t>
-  </si>
-  <si>
     <t>每秒损失3%点护盾值</t>
   </si>
   <si>
-    <t>减速</t>
-  </si>
-  <si>
     <t>单位的移动速度下降25%</t>
   </si>
   <si>
@@ -312,6 +324,12 @@
   </si>
   <si>
     <t>单位将移动速度下降90%，失去当前攻击目标</t>
+  </si>
+  <si>
+    <t>减少单位的10%移动速度，每秒损失1%的结构值</t>
+  </si>
+  <si>
+    <t>减少10%的攻击力</t>
   </si>
   <si>
     <t>该表用于模板，创建新配置表就复制这个
@@ -391,6 +409,9 @@
   </si>
   <si>
     <t>燃烧1</t>
+  </si>
+  <si>
+    <t>每秒损失1%+15点装甲血量和2%+10点结构值</t>
   </si>
   <si>
     <t>燃烧2</t>
@@ -1395,7 +1416,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1426,6 +1447,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1440,6 +1464,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1766,13 +1793,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="43.375" customWidth="1"/>
     <col min="2" max="2" width="33.125" customWidth="1"/>
@@ -1785,19 +1812,19 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1859,6 +1886,91 @@
       </c>
       <c r="F4" s="7" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1876,84 +1988,84 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="43.375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="20.5" style="12" customWidth="1"/>
-    <col min="3" max="3" width="13.625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="26.025" style="12" customWidth="1"/>
-    <col min="5" max="5" width="20" style="12" customWidth="1"/>
-    <col min="6" max="6" width="20.125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="29.875" style="12" customWidth="1"/>
-    <col min="8" max="9" width="17" style="12" customWidth="1"/>
-    <col min="10" max="10" width="23.375" style="12" customWidth="1"/>
-    <col min="11" max="13" width="15.5" style="12" customWidth="1"/>
-    <col min="14" max="14" width="20.75" style="12" customWidth="1"/>
-    <col min="15" max="15" width="54.125" style="12" customWidth="1"/>
-    <col min="16" max="16" width="12.75" style="12" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="43.375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="13" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="26.025" style="13" customWidth="1"/>
+    <col min="5" max="5" width="20" style="13" customWidth="1"/>
+    <col min="6" max="6" width="20.125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="29.875" style="13" customWidth="1"/>
+    <col min="8" max="9" width="17" style="13" customWidth="1"/>
+    <col min="10" max="10" width="23.375" style="13" customWidth="1"/>
+    <col min="11" max="13" width="15.5" style="13" customWidth="1"/>
+    <col min="14" max="14" width="20.75" style="13" customWidth="1"/>
+    <col min="15" max="15" width="54.125" style="13" customWidth="1"/>
+    <col min="16" max="16" width="12.75" style="13" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" ht="156.75" spans="1:18">
       <c r="A1" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="E1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="F1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="G1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="H1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="J1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="K1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="L1" s="14" t="s">
         <v>34</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -2017,55 +2129,55 @@
         <v>7</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" ht="15" spans="1:18">
@@ -2091,16 +2203,16 @@
         <v>16</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>14</v>
@@ -2109,10 +2221,10 @@
         <v>14</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>14</v>
@@ -2124,140 +2236,207 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" ht="60.75" spans="2:4">
-      <c r="B5" s="12">
+    <row r="5" ht="15" spans="2:18">
+      <c r="B5" s="13">
         <v>1</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" ht="24.75" spans="2:4">
-      <c r="B6" s="12">
+        <v>17</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="13">
+        <v>3</v>
+      </c>
+      <c r="G5" s="13">
+        <v>1</v>
+      </c>
+      <c r="H5" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="13">
+        <v>60</v>
+      </c>
+      <c r="J5" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="13">
+        <v>120</v>
+      </c>
+      <c r="M5" s="13">
+        <v>5</v>
+      </c>
+      <c r="N5" s="13">
+        <v>1</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" ht="60.75" spans="2:4">
+      <c r="B6" s="13">
         <v>2</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" ht="15" spans="2:4">
-      <c r="B7" s="12">
+        <v>62</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" ht="24.75" spans="2:4">
+      <c r="B7" s="13">
         <v>3</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="3:3">
-      <c r="C8" s="9"/>
-    </row>
-    <row r="9" ht="72.75" spans="2:4">
-      <c r="B9" s="12">
+        <v>64</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4">
+      <c r="C8" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="2:3">
+      <c r="B9" s="13">
         <v>4</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" ht="48.75" spans="2:4">
-      <c r="B10" s="12">
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" ht="72.75" spans="2:4">
+      <c r="B10" s="13">
         <v>5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" ht="24.75" spans="2:4">
-      <c r="B11" s="12">
+        <v>68</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" ht="48.75" spans="2:4">
+      <c r="B11" s="13">
         <v>6</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>65</v>
+        <v>70</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="12" ht="15" spans="2:4">
-      <c r="B12" s="12">
+      <c r="B12" s="13">
         <v>7</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>67</v>
+        <v>72</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="13" ht="15" spans="2:4">
-      <c r="B13" s="12">
+      <c r="B13" s="13">
         <v>8</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>69</v>
+        <v>19</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="14" ht="15" spans="2:4">
-      <c r="B14" s="12">
+      <c r="B14" s="13">
         <v>9</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>71</v>
+        <v>22</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="15" ht="24.75" spans="2:4">
-      <c r="B15" s="12">
+      <c r="B15" s="13">
         <v>10</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>73</v>
+        <v>76</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="16" ht="60.75" spans="2:4">
-      <c r="B16" s="12">
+      <c r="B16" s="13">
         <v>11</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>75</v>
+        <v>78</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="17" ht="24.75" spans="2:4">
-      <c r="B17" s="12">
+      <c r="B17" s="13">
         <v>12</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>77</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" ht="28.5" spans="2:4">
+      <c r="B18" s="13">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="13">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2273,10 +2452,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2293,28 +2472,28 @@
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="57" spans="1:8">
       <c r="A1" s="5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="1" ht="14.25" spans="1:3">
@@ -2333,16 +2512,16 @@
         <v>7</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" ht="15" spans="1:3">
@@ -2356,438 +2535,455 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" ht="24.75" spans="2:3">
+    <row r="5" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A5">
+        <v>1</v>
+      </c>
       <c r="B5" s="9" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" spans="2:3">
+        <v>60</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" ht="24.75" spans="2:3">
       <c r="B6" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>57</v>
+        <v>62</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="2:3">
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-    </row>
-    <row r="8" ht="14.25" spans="2:7">
-      <c r="B8" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" t="s">
-        <v>89</v>
-      </c>
-      <c r="G8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" ht="36.75" spans="2:8">
+      <c r="B7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="2:3">
+      <c r="B8" s="9"/>
+      <c r="C8" s="11"/>
+    </row>
+    <row r="9" ht="14.25" spans="2:7">
       <c r="B9" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" t="s">
-        <v>92</v>
+        <v>66</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G9">
-        <v>100</v>
-      </c>
-      <c r="H9">
-        <v>20</v>
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="10" ht="36.75" spans="2:8">
       <c r="B10" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>95</v>
+        <v>97</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F10" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G10">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="H10">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="36.75" spans="2:8">
       <c r="B11" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>97</v>
+        <v>100</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>101</v>
       </c>
       <c r="E11" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F11" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G11">
+        <v>250</v>
+      </c>
+      <c r="H11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" ht="36.75" spans="2:8">
+      <c r="B12" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12">
         <v>500</v>
       </c>
-      <c r="H11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" ht="24.75" spans="2:7">
-      <c r="B12" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" t="s">
-        <v>92</v>
-      </c>
-      <c r="F12" t="s">
-        <v>93</v>
-      </c>
-      <c r="G12">
+      <c r="H12">
         <v>100</v>
       </c>
     </row>
     <row r="13" ht="24.75" spans="2:7">
       <c r="B13" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="G13">
         <v>100</v>
-      </c>
-      <c r="E13" t="s">
-        <v>92</v>
-      </c>
-      <c r="F13" t="s">
-        <v>93</v>
-      </c>
-      <c r="G13">
-        <v>250</v>
       </c>
     </row>
     <row r="14" ht="24.75" spans="2:7">
       <c r="B14" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>102</v>
+        <v>105</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="E14" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F14" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G14">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" spans="2:7">
+      <c r="B15" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15">
         <v>500</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" spans="2:7">
-      <c r="B15" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" t="s">
-        <v>92</v>
-      </c>
-      <c r="F15" t="s">
-        <v>93</v>
-      </c>
-      <c r="G15">
-        <v>100</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="2:7">
       <c r="B16" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>105</v>
+        <v>109</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>110</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F16" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G16">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="2:7">
       <c r="B17" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>107</v>
+        <v>111</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>112</v>
       </c>
       <c r="E17" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F17" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G17">
-        <v>500</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="2:7">
       <c r="B18" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>67</v>
+        <v>113</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="E18" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F18" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G18">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="2:7">
       <c r="B19" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>110</v>
+        <v>115</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>73</v>
       </c>
       <c r="E19" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F19" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G19">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="2:7">
       <c r="B20" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>112</v>
+        <v>116</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="E20" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F20" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G20">
-        <v>500</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="2:7">
       <c r="B21" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>69</v>
+        <v>118</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>119</v>
       </c>
       <c r="E21" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F21" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G21">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="2:7">
       <c r="B22" s="9" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="E22" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F22" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G22">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="2:7">
       <c r="B23" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>117</v>
+        <v>121</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>122</v>
       </c>
       <c r="E23" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F23" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G23">
-        <v>500</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="2:7">
       <c r="B24" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>71</v>
+        <v>123</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>124</v>
       </c>
       <c r="E24" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F24" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G24">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="25" ht="14.25" spans="2:7">
       <c r="B25" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>120</v>
+        <v>125</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="E25" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F25" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G25">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="2:7">
       <c r="B26" s="9" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E26" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F26" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G26">
-        <v>500</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="2:7">
       <c r="B27" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>73</v>
+        <v>128</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>129</v>
       </c>
       <c r="E27" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F27" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G27">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="2:7">
       <c r="B28" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>125</v>
+        <v>130</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="E28" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F28" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G28">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="2:7">
       <c r="B29" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>127</v>
+        <v>131</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="E29" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F29" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G29">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" spans="2:7">
+      <c r="B30" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E30" t="s">
+        <v>98</v>
+      </c>
+      <c r="F30" t="s">
+        <v>99</v>
+      </c>
+      <c r="G30">
         <v>500</v>
       </c>
     </row>
-    <row r="30" ht="24.75" spans="2:7">
-      <c r="B30" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30" t="s">
-        <v>89</v>
-      </c>
-      <c r="F30" t="s">
-        <v>89</v>
-      </c>
-      <c r="G30" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" ht="14.25" spans="2:7">
+    <row r="31" ht="24.75" spans="2:7">
       <c r="B31" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="E31" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F31" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G31" t="s">
-        <v>90</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25" spans="2:7">
+      <c r="B32" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F32" t="s">
+        <v>95</v>
+      </c>
+      <c r="G32" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2807,7 +3003,7 @@
   <sheetPr/>
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
@@ -2821,19 +3017,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2841,16 +3037,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2858,16 +3054,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2878,13 +3074,13 @@
         <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2892,16 +3088,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2909,16 +3105,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2930,10 +3126,10 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2941,16 +3137,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2958,16 +3154,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2975,16 +3171,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2992,16 +3188,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3009,16 +3205,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3026,13 +3222,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3040,10 +3236,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3051,10 +3247,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3062,10 +3258,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3073,10 +3269,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3084,10 +3280,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3095,10 +3291,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3106,10 +3302,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3117,10 +3313,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3128,10 +3324,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3139,10 +3335,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3150,10 +3346,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3161,10 +3357,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3172,16 +3368,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3189,16 +3385,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3206,16 +3402,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3223,16 +3419,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3240,13 +3436,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3254,16 +3450,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3271,16 +3467,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3288,16 +3484,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3305,16 +3501,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3322,16 +3518,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3339,14 +3535,14 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3354,11 +3550,11 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3369,13 +3565,13 @@
         <v>16</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/配置文档/buff效果相关/buff配置.xlsx
+++ b/配置文档/buff效果相关/buff配置.xlsx
@@ -1795,8 +1795,8 @@
   <sheetPr/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1990,8 +1990,8 @@
   <sheetPr/>
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2455,7 +2455,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
